--- a/Maquette/Zoning.xlsx
+++ b/Maquette/Zoning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CESI\A2\PROJETS\Web\CESI_A2_Web_G2\Maquette\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine Desramaut\Documents\Boulot\A2\Bloc 3 Web\Projet Web\CESI_A2_Web_G2\Maquette\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61424DCF-EB20-421F-8459-9B90ECE529A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD99FC00-74A2-41F6-9476-7425360BAB54}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" xr2:uid="{03A7DACA-0DAD-47BC-9D29-98806157515B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5625" xr2:uid="{03A7DACA-0DAD-47BC-9D29-98806157515B}"/>
   </bookViews>
   <sheets>
     <sheet name="Zoning" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Bandeau couleur</t>
   </si>
@@ -50,14 +50,47 @@
     <t>Footer</t>
   </si>
   <si>
-    <t>Fil d'ariane</t>
+    <t>Boite à idées des étudiants</t>
+  </si>
+  <si>
+    <t>Créer une Manifestation</t>
+  </si>
+  <si>
+    <t>Boutique</t>
+  </si>
+  <si>
+    <t>Articles</t>
+  </si>
+  <si>
+    <t>Nav pages</t>
+  </si>
+  <si>
+    <t>Fil d'Ariane</t>
+  </si>
+  <si>
+    <t>Filtres</t>
+  </si>
+  <si>
+    <t>Articles Recommandées</t>
+  </si>
+  <si>
+    <t>Titre</t>
+  </si>
+  <si>
+    <t>Etudiants &amp; Salariés CESI</t>
+  </si>
+  <si>
+    <t>BDE</t>
+  </si>
+  <si>
+    <t>Créer un nouvel Article</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +119,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -107,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -195,27 +249,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,94 +420,95 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -627,97 +825,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414B1A64-E876-46F0-8897-D9C0ED54F91D}">
-  <dimension ref="B1:N43"/>
+  <dimension ref="C1:AP43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="1"/>
-    <col min="3" max="14" width="6.77734375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="2" width="11.5703125" style="1"/>
+    <col min="3" max="14" width="6.7109375" style="1" customWidth="1"/>
+    <col min="15" max="16" width="11.5703125" style="1"/>
+    <col min="17" max="28" width="6.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="11.5703125" style="1"/>
+    <col min="30" max="41" width="6.7109375" style="1" customWidth="1"/>
+    <col min="42" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1">
+    <row r="1" spans="3:41" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="Q1" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AD1" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="32" t="s">
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+    </row>
+    <row r="2" spans="3:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="34"/>
-    </row>
-    <row r="3" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
-    </row>
-    <row r="4" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="7"/>
+      <c r="Q2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="7"/>
+      <c r="AD2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="7"/>
+    </row>
+    <row r="3" spans="3:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="13"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="13"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="13"/>
+    </row>
+    <row r="4" spans="3:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -730,11 +981,32 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="4"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="4"/>
+    </row>
+    <row r="5" spans="3:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="14" t="s">
         <v>1</v>
       </c>
@@ -751,11 +1023,40 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
       <c r="N5" s="16"/>
-    </row>
-    <row r="6" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
+      <c r="Q5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="16"/>
+      <c r="AD5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="16"/>
+    </row>
+    <row r="6" spans="3:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -768,11 +1069,32 @@
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
       <c r="N6" s="19"/>
-    </row>
-    <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="19"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="19"/>
+    </row>
+    <row r="7" spans="3:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -785,11 +1107,32 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="19"/>
-    </row>
-    <row r="8" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="19"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="19"/>
+    </row>
+    <row r="8" spans="3:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -802,11 +1145,32 @@
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
       <c r="N8" s="19"/>
-    </row>
-    <row r="9" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="19"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18"/>
+      <c r="AO8" s="19"/>
+    </row>
+    <row r="9" spans="3:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -819,11 +1183,32 @@
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="22"/>
-    </row>
-    <row r="10" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="22"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="22"/>
+    </row>
+    <row r="10" spans="3:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -836,47 +1221,114 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="34"/>
-    </row>
-    <row r="12" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="40"/>
-    </row>
-    <row r="13" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="1">
+      <c r="Q10" s="2"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="4"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="4"/>
+    </row>
+    <row r="11" spans="3:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="7"/>
+      <c r="Q11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="7"/>
+      <c r="AD11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="7"/>
+    </row>
+    <row r="12" spans="3:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="13"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="13"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="13"/>
+    </row>
+    <row r="13" spans="3:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -889,11 +1341,32 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>13</v>
-      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="4"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="4"/>
+    </row>
+    <row r="14" spans="3:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="14" t="s">
         <v>3</v>
       </c>
@@ -910,11 +1383,38 @@
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
       <c r="N14" s="25"/>
-    </row>
-    <row r="15" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <v>14</v>
-      </c>
+      <c r="Q14" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="36"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="46"/>
+    </row>
+    <row r="15" spans="3:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="17"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -927,11 +1427,32 @@
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
       <c r="N15" s="28"/>
-    </row>
-    <row r="16" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
-        <v>15</v>
-      </c>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="39"/>
+      <c r="AD15" s="43"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="22"/>
+      <c r="AM15" s="45"/>
+      <c r="AN15" s="45"/>
+      <c r="AO15" s="46"/>
+    </row>
+    <row r="16" spans="3:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -944,11 +1465,32 @@
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="28"/>
-    </row>
-    <row r="17" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
-        <v>16</v>
-      </c>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="39"/>
+      <c r="AD16" s="43"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="44"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="45"/>
+      <c r="AK16" s="45"/>
+      <c r="AL16" s="45"/>
+      <c r="AM16" s="45"/>
+      <c r="AN16" s="45"/>
+      <c r="AO16" s="46"/>
+    </row>
+    <row r="17" spans="3:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="17"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -961,11 +1503,32 @@
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
       <c r="N17" s="28"/>
-    </row>
-    <row r="18" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
-        <v>17</v>
-      </c>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="39"/>
+      <c r="AD17" s="43"/>
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="45"/>
+      <c r="AK17" s="45"/>
+      <c r="AL17" s="45"/>
+      <c r="AM17" s="45"/>
+      <c r="AN17" s="45"/>
+      <c r="AO17" s="46"/>
+    </row>
+    <row r="18" spans="3:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="17"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -978,11 +1541,36 @@
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="28"/>
-    </row>
-    <row r="19" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1">
-        <v>18</v>
-      </c>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="39"/>
+      <c r="AD18" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="16"/>
+      <c r="AN18" s="45"/>
+      <c r="AO18" s="46"/>
+    </row>
+    <row r="19" spans="3:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -995,11 +1583,32 @@
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
       <c r="N19" s="28"/>
-    </row>
-    <row r="20" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="1">
-        <v>19</v>
-      </c>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="39"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="45"/>
+      <c r="AO19" s="46"/>
+    </row>
+    <row r="20" spans="3:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -1012,11 +1621,32 @@
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
       <c r="N20" s="28"/>
-    </row>
-    <row r="21" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="1">
-        <v>20</v>
-      </c>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="39"/>
+      <c r="AD20" s="52"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="18"/>
+      <c r="AM20" s="19"/>
+      <c r="AN20" s="45"/>
+      <c r="AO20" s="46"/>
+    </row>
+    <row r="21" spans="3:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -1029,11 +1659,32 @@
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
       <c r="N21" s="28"/>
-    </row>
-    <row r="22" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="1">
-        <v>21</v>
-      </c>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="39"/>
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="18"/>
+      <c r="AM21" s="19"/>
+      <c r="AN21" s="45"/>
+      <c r="AO21" s="46"/>
+    </row>
+    <row r="22" spans="3:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -1046,11 +1697,32 @@
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
       <c r="N22" s="28"/>
-    </row>
-    <row r="23" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="1">
-        <v>22</v>
-      </c>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="39"/>
+      <c r="AD22" s="52"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="19"/>
+      <c r="AN22" s="45"/>
+      <c r="AO22" s="46"/>
+    </row>
+    <row r="23" spans="3:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="17"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -1063,11 +1735,32 @@
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
       <c r="N23" s="28"/>
-    </row>
-    <row r="24" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="1">
-        <v>23</v>
-      </c>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="39"/>
+      <c r="AD23" s="52"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="18"/>
+      <c r="AK23" s="18"/>
+      <c r="AL23" s="18"/>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="45"/>
+      <c r="AO23" s="46"/>
+    </row>
+    <row r="24" spans="3:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="17"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -1080,11 +1773,33 @@
       <c r="L24" s="27"/>
       <c r="M24" s="27"/>
       <c r="N24" s="28"/>
-    </row>
-    <row r="25" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="1">
-        <v>24</v>
-      </c>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="52"/>
+      <c r="AE24" s="44"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="18"/>
+      <c r="AH24" s="18"/>
+      <c r="AI24" s="18"/>
+      <c r="AJ24" s="18"/>
+      <c r="AK24" s="18"/>
+      <c r="AL24" s="18"/>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="45"/>
+      <c r="AO24" s="46"/>
+    </row>
+    <row r="25" spans="3:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="20"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
@@ -1097,11 +1812,33 @@
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
       <c r="N25" s="28"/>
-    </row>
-    <row r="26" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="1">
-        <v>25</v>
-      </c>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18"/>
+      <c r="AJ25" s="18"/>
+      <c r="AK25" s="18"/>
+      <c r="AL25" s="18"/>
+      <c r="AM25" s="19"/>
+      <c r="AN25" s="45"/>
+      <c r="AO25" s="46"/>
+    </row>
+    <row r="26" spans="3:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1114,11 +1851,34 @@
       <c r="L26" s="27"/>
       <c r="M26" s="27"/>
       <c r="N26" s="28"/>
-    </row>
-    <row r="27" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="1">
-        <v>26</v>
-      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="52"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="18"/>
+      <c r="AH26" s="18"/>
+      <c r="AI26" s="18"/>
+      <c r="AJ26" s="18"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="18"/>
+      <c r="AM26" s="19"/>
+      <c r="AN26" s="45"/>
+      <c r="AO26" s="46"/>
+      <c r="AP26" s="3"/>
+    </row>
+    <row r="27" spans="3:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1131,11 +1891,34 @@
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
       <c r="N27" s="28"/>
-    </row>
-    <row r="28" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="1">
-        <v>27</v>
-      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="53"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="18"/>
+      <c r="AI27" s="18"/>
+      <c r="AJ27" s="18"/>
+      <c r="AK27" s="18"/>
+      <c r="AL27" s="18"/>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="45"/>
+      <c r="AO27" s="46"/>
+      <c r="AP27" s="3"/>
+    </row>
+    <row r="28" spans="3:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="14" t="s">
         <v>5</v>
       </c>
@@ -1150,11 +1933,35 @@
       <c r="L28" s="27"/>
       <c r="M28" s="27"/>
       <c r="N28" s="28"/>
-    </row>
-    <row r="29" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="1">
-        <v>28</v>
-      </c>
+      <c r="Q28" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="39"/>
+      <c r="AD28" s="43"/>
+      <c r="AE28" s="44"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="18"/>
+      <c r="AJ28" s="18"/>
+      <c r="AK28" s="18"/>
+      <c r="AL28" s="18"/>
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="45"/>
+      <c r="AO28" s="46"/>
+      <c r="AP28" s="3"/>
+    </row>
+    <row r="29" spans="3:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -1167,11 +1974,33 @@
       <c r="L29" s="30"/>
       <c r="M29" s="30"/>
       <c r="N29" s="31"/>
-    </row>
-    <row r="30" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="1">
-        <v>29</v>
-      </c>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="41"/>
+      <c r="AA29" s="41"/>
+      <c r="AB29" s="42"/>
+      <c r="AD29" s="43"/>
+      <c r="AE29" s="44"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="18"/>
+      <c r="AH29" s="18"/>
+      <c r="AI29" s="18"/>
+      <c r="AJ29" s="18"/>
+      <c r="AK29" s="18"/>
+      <c r="AL29" s="18"/>
+      <c r="AM29" s="19"/>
+      <c r="AN29" s="45"/>
+      <c r="AO29" s="46"/>
+      <c r="AP29" s="3"/>
+    </row>
+    <row r="30" spans="3:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -1184,130 +2013,308 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="4"/>
-    </row>
-    <row r="31" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="1">
-        <v>30</v>
-      </c>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="4"/>
+      <c r="AD30" s="43"/>
+      <c r="AE30" s="44"/>
+      <c r="AF30" s="20"/>
+      <c r="AG30" s="21"/>
+      <c r="AH30" s="21"/>
+      <c r="AI30" s="21"/>
+      <c r="AJ30" s="21"/>
+      <c r="AK30" s="21"/>
+      <c r="AL30" s="21"/>
+      <c r="AM30" s="22"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="2"/>
+    </row>
+    <row r="31" spans="3:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C31" s="17"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="19"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="1">
-        <v>31</v>
-      </c>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="33"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="36"/>
+      <c r="AD31" s="43"/>
+      <c r="AE31" s="44"/>
+      <c r="AF31" s="44"/>
+      <c r="AG31" s="44"/>
+      <c r="AH31" s="44"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="47"/>
+      <c r="AK31" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL31" s="55"/>
+      <c r="AM31" s="56"/>
+      <c r="AN31" s="47"/>
+      <c r="AO31" s="47"/>
+      <c r="AP31" s="2"/>
+    </row>
+    <row r="32" spans="3:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="17"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="19"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="10"/>
-    </row>
-    <row r="33" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="1">
-        <v>32</v>
-      </c>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="33"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="61"/>
+      <c r="T32" s="61"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="39"/>
+      <c r="AD32" s="43"/>
+      <c r="AE32" s="44"/>
+      <c r="AF32" s="44"/>
+      <c r="AG32" s="44"/>
+      <c r="AH32" s="44"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="47"/>
+      <c r="AK32" s="47"/>
+      <c r="AL32" s="47"/>
+      <c r="AM32" s="47"/>
+      <c r="AN32" s="47"/>
+      <c r="AO32" s="47"/>
+      <c r="AP32" s="2"/>
+    </row>
+    <row r="33" spans="3:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="17"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="19"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="10"/>
-    </row>
-    <row r="34" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="1">
-        <v>33</v>
-      </c>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="33"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="38"/>
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="38"/>
+      <c r="AB33" s="39"/>
+      <c r="AD33" s="43"/>
+      <c r="AE33" s="44"/>
+      <c r="AF33" s="44"/>
+      <c r="AG33" s="44"/>
+      <c r="AH33" s="44"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="47"/>
+      <c r="AK33" s="47"/>
+      <c r="AL33" s="47"/>
+      <c r="AM33" s="47"/>
+      <c r="AN33" s="47"/>
+      <c r="AO33" s="48"/>
+    </row>
+    <row r="34" spans="3:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="17"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="G34" s="19"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="10"/>
-    </row>
-    <row r="35" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="1">
-        <v>34</v>
-      </c>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="33"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="61"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="39"/>
+      <c r="AD34" s="43"/>
+      <c r="AE34" s="44"/>
+      <c r="AF34" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG34" s="15"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="15"/>
+      <c r="AJ34" s="15"/>
+      <c r="AK34" s="15"/>
+      <c r="AL34" s="15"/>
+      <c r="AM34" s="16"/>
+      <c r="AN34" s="47"/>
+      <c r="AO34" s="48"/>
+    </row>
+    <row r="35" spans="3:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="17"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
       <c r="G35" s="19"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="10"/>
-    </row>
-    <row r="36" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="1">
-        <v>35</v>
-      </c>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="33"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="61"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="61"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="38"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="38"/>
+      <c r="AB35" s="39"/>
+      <c r="AD35" s="43"/>
+      <c r="AE35" s="44"/>
+      <c r="AF35" s="17"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="18"/>
+      <c r="AI35" s="18"/>
+      <c r="AJ35" s="18"/>
+      <c r="AK35" s="18"/>
+      <c r="AL35" s="18"/>
+      <c r="AM35" s="19"/>
+      <c r="AN35" s="47"/>
+      <c r="AO35" s="48"/>
+    </row>
+    <row r="36" spans="3:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="17"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="19"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="10"/>
-    </row>
-    <row r="37" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="1">
-        <v>36</v>
-      </c>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="33"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="38"/>
+      <c r="Y36" s="38"/>
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="38"/>
+      <c r="AB36" s="39"/>
+      <c r="AD36" s="43"/>
+      <c r="AE36" s="44"/>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="18"/>
+      <c r="AI36" s="18"/>
+      <c r="AJ36" s="18"/>
+      <c r="AK36" s="18"/>
+      <c r="AL36" s="18"/>
+      <c r="AM36" s="19"/>
+      <c r="AN36" s="47"/>
+      <c r="AO36" s="48"/>
+    </row>
+    <row r="37" spans="3:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="20"/>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
       <c r="G37" s="22"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="13"/>
-    </row>
-    <row r="38" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="1">
-        <v>37</v>
-      </c>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="33"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="65"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="41"/>
+      <c r="Y37" s="41"/>
+      <c r="Z37" s="41"/>
+      <c r="AA37" s="41"/>
+      <c r="AB37" s="42"/>
+      <c r="AD37" s="43"/>
+      <c r="AE37" s="44"/>
+      <c r="AF37" s="20"/>
+      <c r="AG37" s="21"/>
+      <c r="AH37" s="21"/>
+      <c r="AI37" s="21"/>
+      <c r="AJ37" s="21"/>
+      <c r="AK37" s="21"/>
+      <c r="AL37" s="21"/>
+      <c r="AM37" s="22"/>
+      <c r="AN37" s="47"/>
+      <c r="AO37" s="47"/>
+      <c r="AP37" s="2"/>
+    </row>
+    <row r="38" spans="3:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1320,11 +2327,32 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="4"/>
-    </row>
-    <row r="39" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="1">
-        <v>38</v>
-      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="4"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="4"/>
+    </row>
+    <row r="39" spans="3:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1337,79 +2365,213 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="1">
-        <v>39</v>
-      </c>
-      <c r="C40" s="32" t="s">
+      <c r="Q39" s="2"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="4"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="4"/>
+    </row>
+    <row r="40" spans="3:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="34"/>
-    </row>
-    <row r="41" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="1">
-        <v>40</v>
-      </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="37"/>
-    </row>
-    <row r="42" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="1">
-        <v>41</v>
-      </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="37"/>
-    </row>
-    <row r="43" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="1">
-        <v>42</v>
-      </c>
-      <c r="C43" s="38"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="40"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="7"/>
+      <c r="Q40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="7"/>
+      <c r="AD40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="6"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="6"/>
+      <c r="AL40" s="6"/>
+      <c r="AM40" s="6"/>
+      <c r="AN40" s="6"/>
+      <c r="AO40" s="7"/>
+    </row>
+    <row r="41" spans="3:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="10"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="10"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="9"/>
+      <c r="AF41" s="9"/>
+      <c r="AG41" s="9"/>
+      <c r="AH41" s="9"/>
+      <c r="AI41" s="9"/>
+      <c r="AJ41" s="9"/>
+      <c r="AK41" s="9"/>
+      <c r="AL41" s="9"/>
+      <c r="AM41" s="9"/>
+      <c r="AN41" s="9"/>
+      <c r="AO41" s="10"/>
+    </row>
+    <row r="42" spans="3:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="10"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="10"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="9"/>
+      <c r="AF42" s="9"/>
+      <c r="AG42" s="9"/>
+      <c r="AH42" s="9"/>
+      <c r="AI42" s="9"/>
+      <c r="AJ42" s="9"/>
+      <c r="AK42" s="9"/>
+      <c r="AL42" s="9"/>
+      <c r="AM42" s="9"/>
+      <c r="AN42" s="9"/>
+      <c r="AO42" s="10"/>
+    </row>
+    <row r="43" spans="3:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="11"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="13"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="13"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="12"/>
+      <c r="AL43" s="12"/>
+      <c r="AM43" s="12"/>
+      <c r="AN43" s="12"/>
+      <c r="AO43" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="31">
+    <mergeCell ref="Q1:AB1"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="AD1:AO1"/>
+    <mergeCell ref="Q40:AB43"/>
+    <mergeCell ref="AD2:AO3"/>
+    <mergeCell ref="AD5:AG9"/>
+    <mergeCell ref="AI5:AO9"/>
+    <mergeCell ref="AD11:AO12"/>
+    <mergeCell ref="AD40:AO43"/>
+    <mergeCell ref="AG14:AL15"/>
+    <mergeCell ref="AF18:AM30"/>
+    <mergeCell ref="AD18:AD27"/>
+    <mergeCell ref="AF34:AM37"/>
+    <mergeCell ref="AK31:AM31"/>
+    <mergeCell ref="Q2:AB3"/>
+    <mergeCell ref="Q5:T9"/>
+    <mergeCell ref="V5:AB9"/>
+    <mergeCell ref="Q11:AB12"/>
+    <mergeCell ref="Q14:U25"/>
+    <mergeCell ref="W14:AB29"/>
+    <mergeCell ref="Q28:U37"/>
+    <mergeCell ref="W31:AB37"/>
     <mergeCell ref="C40:N43"/>
     <mergeCell ref="C5:F9"/>
     <mergeCell ref="H5:N9"/>
@@ -1421,6 +2583,7 @@
     <mergeCell ref="I31:N37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1430,7 +2593,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1442,7 +2605,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
